--- a/ebs_with_tracing/forms/app/referral.xlsx
+++ b/ebs_with_tracing/forms/app/referral.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="237">
   <si>
     <t>form_title</t>
   </si>
@@ -734,9 +734,6 @@
     <t>Hôpital civil</t>
   </si>
   <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>° C</t>
   </si>
   <si>
@@ -744,12 +741,18 @@
   </si>
   <si>
     <t>Patient référé</t>
+  </si>
+  <si>
+    <t>label::sh</t>
+  </si>
+  <si>
+    <t>Zvimwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -1334,36 +1337,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23:D31"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="4" width="44.5" customWidth="1"/>
-    <col min="5" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" customWidth="1"/>
-    <col min="8" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="73.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="73.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="28" width="29.83203125" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="28" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>12</v>
@@ -1433,7 +1436,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1473,7 +1476,7 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1550,7 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1586,7 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +1660,7 @@
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1696,7 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1732,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>37</v>
       </c>
@@ -1801,7 +1804,7 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>37</v>
       </c>
@@ -1837,7 +1840,7 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1876,7 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="22"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>83</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>83</v>
       </c>
@@ -1975,7 +1978,7 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>83</v>
       </c>
@@ -2011,7 +2014,7 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -2041,7 +2044,7 @@
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>84</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
@@ -2117,7 +2120,7 @@
       <c r="AA20" s="34"/>
       <c r="AB20" s="34"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>84</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -2185,7 +2188,7 @@
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>94</v>
       </c>
@@ -2223,7 +2226,7 @@
       <c r="AA23" s="46"/>
       <c r="AB23" s="46"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>110</v>
       </c>
@@ -2263,7 +2266,7 @@
       <c r="AA24" s="46"/>
       <c r="AB24" s="46"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>117</v>
       </c>
@@ -2305,7 +2308,7 @@
       <c r="AA25" s="46"/>
       <c r="AB25" s="46"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>94</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="AA26" s="46"/>
       <c r="AB26" s="46"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>110</v>
       </c>
@@ -2383,7 +2386,7 @@
       <c r="AA27" s="48"/>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>117</v>
       </c>
@@ -2425,7 +2428,7 @@
       <c r="AA28" s="46"/>
       <c r="AB28" s="46"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>142</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>144</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>99</v>
@@ -2465,7 +2468,7 @@
       <c r="AA29" s="48"/>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>148</v>
       </c>
@@ -2507,7 +2510,7 @@
       <c r="AA30" s="46"/>
       <c r="AB30" s="46"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>148</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="AA31" s="46"/>
       <c r="AB31" s="46"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="41"/>
@@ -2575,7 +2578,7 @@
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="41"/>
@@ -2605,7 +2608,7 @@
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="41"/>
@@ -2635,7 +2638,7 @@
       <c r="AA34" s="48"/>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="49"/>
       <c r="C35" s="43"/>
@@ -2665,7 +2668,7 @@
       <c r="AA35" s="48"/>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="49"/>
       <c r="C36" s="43"/>
@@ -2695,7 +2698,7 @@
       <c r="AA36" s="48"/>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="43"/>
@@ -2725,7 +2728,7 @@
       <c r="AA37" s="48"/>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="41"/>
@@ -2755,7 +2758,7 @@
       <c r="AA38" s="46"/>
       <c r="AB38" s="46"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="41"/>
@@ -2785,7 +2788,7 @@
       <c r="AA39" s="48"/>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="41"/>
@@ -2815,7 +2818,7 @@
       <c r="AA40" s="48"/>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="41"/>
@@ -2845,7 +2848,7 @@
       <c r="AA41" s="48"/>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="41"/>
@@ -2875,7 +2878,7 @@
       <c r="AA42" s="48"/>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="41"/>
@@ -2905,7 +2908,7 @@
       <c r="AA43" s="48"/>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="41"/>
@@ -2935,7 +2938,7 @@
       <c r="AA44" s="48"/>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="41"/>
@@ -2965,7 +2968,7 @@
       <c r="AA45" s="48"/>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="41"/>
@@ -2995,7 +2998,7 @@
       <c r="AA46" s="48"/>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="41"/>
@@ -3025,7 +3028,7 @@
       <c r="AA47" s="48"/>
       <c r="AB47" s="48"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="41"/>
@@ -3055,7 +3058,7 @@
       <c r="AA48" s="48"/>
       <c r="AB48" s="48"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="41"/>
@@ -3085,7 +3088,7 @@
       <c r="AA49" s="48"/>
       <c r="AB49" s="48"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="41"/>
@@ -3115,7 +3118,7 @@
       <c r="AA50" s="48"/>
       <c r="AB50" s="48"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="41"/>
@@ -3145,7 +3148,7 @@
       <c r="AA51" s="48"/>
       <c r="AB51" s="48"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="49"/>
       <c r="C52" s="43"/>
@@ -3175,7 +3178,7 @@
       <c r="AA52" s="48"/>
       <c r="AB52" s="48"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="49"/>
       <c r="C53" s="43"/>
@@ -3205,7 +3208,7 @@
       <c r="AA53" s="48"/>
       <c r="AB53" s="48"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="52"/>
       <c r="C54" s="45"/>
@@ -3235,7 +3238,7 @@
       <c r="AA54" s="53"/>
       <c r="AB54" s="53"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="41"/>
@@ -3265,7 +3268,7 @@
       <c r="AA55" s="53"/>
       <c r="AB55" s="53"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="41"/>
@@ -3295,7 +3298,7 @@
       <c r="AA56" s="48"/>
       <c r="AB56" s="48"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="41"/>
@@ -3325,7 +3328,7 @@
       <c r="AA57" s="48"/>
       <c r="AB57" s="48"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="41"/>
@@ -3355,7 +3358,7 @@
       <c r="AA58" s="48"/>
       <c r="AB58" s="48"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="41"/>
@@ -3385,7 +3388,7 @@
       <c r="AA59" s="48"/>
       <c r="AB59" s="48"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="49"/>
       <c r="C60" s="43"/>
@@ -3415,7 +3418,7 @@
       <c r="AA60" s="48"/>
       <c r="AB60" s="48"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="41"/>
@@ -3445,7 +3448,7 @@
       <c r="AA61" s="53"/>
       <c r="AB61" s="53"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="41"/>
@@ -3475,7 +3478,7 @@
       <c r="AA62" s="53"/>
       <c r="AB62" s="53"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="41"/>
@@ -3505,7 +3508,7 @@
       <c r="AA63" s="53"/>
       <c r="AB63" s="53"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="41"/>
@@ -3535,7 +3538,7 @@
       <c r="AA64" s="53"/>
       <c r="AB64" s="53"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="41"/>
@@ -3565,7 +3568,7 @@
       <c r="AA65" s="53"/>
       <c r="AB65" s="53"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="41"/>
@@ -3595,7 +3598,7 @@
       <c r="AA66" s="53"/>
       <c r="AB66" s="53"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="41"/>
@@ -3625,7 +3628,7 @@
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="41"/>
@@ -3655,7 +3658,7 @@
       <c r="AA68" s="53"/>
       <c r="AB68" s="53"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="54"/>
       <c r="C69" s="41"/>
@@ -3685,7 +3688,7 @@
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="41"/>
@@ -3728,23 +3731,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="16" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="16" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3770,7 +3773,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -3879,10 +3882,10 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -3893,10 +3896,10 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -3907,14 +3910,14 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="16"/>
     </row>
@@ -3925,7 +3928,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
@@ -3935,15 +3938,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +3997,7 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">NOW()</f>
-        <v>43918.513339467594</v>
+        <v>44010.835427430553</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
@@ -4031,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W1000"/>
@@ -4041,13 +4044,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="23" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="23" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4090,7 +4093,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>98</v>
       </c>
@@ -4121,7 +4124,7 @@
       <c r="V2" s="44"/>
       <c r="W2" s="44"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>98</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4177,7 +4180,7 @@
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>103</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>103</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="V6" s="44"/>
       <c r="W6" s="44"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>103</v>
       </c>
@@ -4270,7 +4273,7 @@
       <c r="V7" s="44"/>
       <c r="W7" s="44"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>103</v>
       </c>
@@ -4301,7 +4304,7 @@
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>103</v>
       </c>
@@ -4332,7 +4335,7 @@
       <c r="V9" s="44"/>
       <c r="W9" s="44"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4357,7 +4360,7 @@
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>120</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>120</v>
       </c>
@@ -4419,7 +4422,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
         <v>120</v>
       </c>
@@ -4450,7 +4453,7 @@
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>120</v>
       </c>
@@ -4481,7 +4484,7 @@
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>120</v>
       </c>
@@ -4512,7 +4515,7 @@
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>120</v>
       </c>
@@ -4543,7 +4546,7 @@
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -4568,7 +4571,7 @@
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>137</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>137</v>
       </c>
@@ -4630,7 +4633,7 @@
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>137</v>
       </c>
@@ -4661,7 +4664,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
         <v>137</v>
       </c>
@@ -4692,7 +4695,7 @@
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>137</v>
       </c>
@@ -4723,7 +4726,7 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
         <v>137</v>
       </c>
@@ -4754,7 +4757,7 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -4779,7 +4782,7 @@
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>145</v>
       </c>
@@ -4810,7 +4813,7 @@
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>145</v>
       </c>
@@ -4841,7 +4844,7 @@
       <c r="V26" s="44"/>
       <c r="W26" s="44"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
         <v>145</v>
       </c>
@@ -4872,7 +4875,7 @@
       <c r="V27" s="44"/>
       <c r="W27" s="44"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>145</v>
       </c>
@@ -4903,7 +4906,7 @@
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>145</v>
       </c>
@@ -4934,7 +4937,7 @@
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -4959,7 +4962,7 @@
       <c r="V30" s="44"/>
       <c r="W30" s="44"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>159</v>
       </c>
@@ -4990,7 +4993,7 @@
       <c r="V31" s="44"/>
       <c r="W31" s="44"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
         <v>159</v>
       </c>
@@ -5021,7 +5024,7 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5046,7 +5049,7 @@
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -5165,13 +5168,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -5195,13 +5198,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>175</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>175</v>
       </c>
@@ -5263,8 +5266,8 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5330,8 +5333,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50" t="s">
         <v>191</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>191</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
         <v>191</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>191</v>
       </c>
@@ -5375,8 +5378,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>198</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>198</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>198</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>198</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
@@ -5431,8 +5434,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -5454,8 +5457,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -5488,932 +5491,932 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ebs_with_tracing/forms/app/referral.xlsx
+++ b/ebs_with_tracing/forms/app/referral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="217">
   <si>
     <t>form_title</t>
   </si>
@@ -119,18 +119,12 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>teku</t>
-  </si>
-  <si>
     <t>cht::notes</t>
   </si>
   <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>Teku Hospital</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -170,60 +164,24 @@
     <t>contact</t>
   </si>
   <si>
-    <t>patan</t>
-  </si>
-  <si>
-    <t>Patan Hospital</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>Police Hospital</t>
-  </si>
-  <si>
     <t>db:person</t>
   </si>
   <si>
-    <t>army</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t>Army Hospital</t>
-  </si>
-  <si>
     <t>What is the passenger's name?</t>
   </si>
   <si>
-    <t>kirtipur</t>
-  </si>
-  <si>
-    <t>Kirtipur Hospital</t>
-  </si>
-  <si>
     <t>db-object</t>
   </si>
   <si>
-    <t>bir</t>
-  </si>
-  <si>
-    <t>Bir Hospital</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>Civil Hospital</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -233,21 +191,12 @@
     <t>Other</t>
   </si>
   <si>
-    <t>temp_units</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
-    <t>°C</t>
-  </si>
-  <si>
     <t>fahrenheit</t>
   </si>
   <si>
-    <t>°F</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
@@ -716,37 +665,28 @@
     <t>Remarques</t>
   </si>
   <si>
-    <t>teku Hôpital</t>
-  </si>
-  <si>
-    <t>Hôpital Patan</t>
-  </si>
-  <si>
-    <t>Hôpital de la police</t>
-  </si>
-  <si>
-    <t>Hôpital armée</t>
-  </si>
-  <si>
-    <t>Kirtipur Hôpital</t>
-  </si>
-  <si>
-    <t>Hôpital civil</t>
-  </si>
-  <si>
-    <t>° C</t>
-  </si>
-  <si>
-    <t>° F</t>
-  </si>
-  <si>
     <t>Patient référé</t>
   </si>
   <si>
     <t>label::sh</t>
   </si>
   <si>
-    <t>Zvimwe</t>
+    <t>Parirenyatwa Hospital</t>
+  </si>
+  <si>
+    <t>parirenyatwa</t>
+  </si>
+  <si>
+    <t>harare_hospital</t>
+  </si>
+  <si>
+    <t>Harare Hospital</t>
+  </si>
+  <si>
+    <t>wilkings</t>
+  </si>
+  <si>
+    <t>Wilkings Clinic</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>12</v>
@@ -1425,7 +1365,7 @@
         <v>26</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -1438,22 +1378,22 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1478,13 +1418,13 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="13"/>
@@ -1498,7 +1438,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -1516,13 +1456,13 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="13"/>
@@ -1552,13 +1492,13 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="13"/>
@@ -1588,20 +1528,20 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1626,13 +1566,13 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="13"/>
@@ -1662,13 +1602,13 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="13"/>
@@ -1698,13 +1638,13 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -1734,13 +1674,13 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -1770,13 +1710,13 @@
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -1806,13 +1746,13 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -1842,13 +1782,13 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -1878,13 +1818,13 @@
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1914,7 +1854,7 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="22"/>
@@ -1946,10 +1886,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="26"/>
@@ -1980,10 +1920,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="26"/>
@@ -2001,7 +1941,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="15"/>
@@ -2046,13 +1986,13 @@
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="31"/>
@@ -2063,7 +2003,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -2084,13 +2024,13 @@
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="31"/>
@@ -2101,7 +2041,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="32" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -2122,13 +2062,13 @@
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="31"/>
@@ -2139,7 +2079,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="32" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -2190,16 +2130,16 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
@@ -2228,16 +2168,16 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
@@ -2250,7 +2190,7 @@
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
       <c r="O24" s="41" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
@@ -2268,16 +2208,16 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
@@ -2285,10 +2225,10 @@
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
@@ -2310,16 +2250,16 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -2348,16 +2288,16 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="43"/>
@@ -2370,7 +2310,7 @@
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
       <c r="O27" s="41" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
@@ -2388,16 +2328,16 @@
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
@@ -2405,10 +2345,10 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
@@ -2430,19 +2370,19 @@
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -2470,23 +2410,23 @@
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="41" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -2512,16 +2452,16 @@
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
@@ -3734,20 +3674,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="16" width="45.85546875" customWidth="1"/>
+    <col min="2" max="15" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3757,9 +3697,7 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3771,155 +3709,43 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3990,22 +3816,22 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="17">
         <f ca="1">NOW()</f>
-        <v>44010.835427430553</v>
+        <v>44062.927276041664</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4061,22 +3887,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -4095,13 +3921,13 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -4126,13 +3952,13 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -4182,13 +4008,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -4213,13 +4039,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -4244,13 +4070,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
@@ -4275,13 +4101,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -4306,13 +4132,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -4362,13 +4188,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -4393,13 +4219,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -4424,13 +4250,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -4455,13 +4281,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -4486,13 +4312,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -4517,13 +4343,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -4573,13 +4399,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -4604,13 +4430,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
@@ -4635,13 +4461,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
@@ -4666,13 +4492,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
@@ -4697,13 +4523,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -4728,13 +4554,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -4784,13 +4610,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
@@ -4815,13 +4641,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -4846,13 +4672,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
@@ -4877,13 +4703,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
@@ -4908,13 +4734,13 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
@@ -4964,13 +4790,13 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -4995,13 +4821,13 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
@@ -5051,121 +4877,121 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5176,26 +5002,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5206,13 +5032,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
@@ -5237,13 +5063,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
@@ -5269,226 +5095,226 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/ebs_with_tracing/forms/app/referral.xlsx
+++ b/ebs_with_tracing/forms/app/referral.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="220">
   <si>
     <t>form_title</t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>Wilkings Clinic</t>
+  </si>
+  <si>
+    <t>temp_units</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>°F</t>
   </si>
 </sst>
 </file>
@@ -3674,11 +3683,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3744,8 +3753,26 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3823,7 +3850,7 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">NOW()</f>
-        <v>44062.927276041664</v>
+        <v>44065.661380555553</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
